--- a/data/page_metadata_staging.xlsx
+++ b/data/page_metadata_staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\Portfolio Website\portfolio-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB30A0-544C-4C3B-9DD1-9CA48191859D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B85E8-CC11-4E81-9A42-C46B33173941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0F48850E-ADBC-4F08-8282-8BC2E517D1A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>mlb_the_show</t>
   </si>
@@ -33,12 +33,6 @@
     <t>handbell_music</t>
   </si>
   <si>
-    <t>nba_prediction</t>
-  </si>
-  <si>
-    <t>NBA Prediction</t>
-  </si>
-  <si>
     <t>MechaCar Statistics</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
     <t>app</t>
   </si>
   <si>
-    <t xml:space="preserve">pandas, splinter, bs4 (beautiful soup 4), sqlalchemy, bootstrap, AWS, postgresql, flask </t>
-  </si>
-  <si>
-    <t>database, web scraping, app, logistic regression, PCA</t>
-  </si>
-  <si>
     <t>pandas, httpx, selectolax</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>web scraping</t>
   </si>
   <si>
-    <t>database, app</t>
-  </si>
-  <si>
     <t>mechacar</t>
   </si>
   <si>
@@ -180,9 +165,6 @@
     <t>https://github.com/cdpeters/mlb-the-show-analysis</t>
   </si>
   <si>
-    <t>https://github.com/pascalegeday/NBA_Prediction_Analysis</t>
-  </si>
-  <si>
     <t>https://github.com/cdpeters/MechaCar-statistical-analysis-R</t>
   </si>
   <si>
@@ -201,12 +183,6 @@
     <t>https://github.com/cdpeters/employee-database-postgresql</t>
   </si>
   <si>
-    <t>dash_test_app</t>
-  </si>
-  <si>
-    <t>Dash Test App</t>
-  </si>
-  <si>
     <t>Handbell Music</t>
   </si>
   <si>
@@ -228,18 +204,12 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Python, CSS</t>
-  </si>
-  <si>
     <t>JavaScript, HTML, CSS</t>
   </si>
   <si>
     <t>Markdown</t>
   </si>
   <si>
-    <t>Python, JavaScript, HTML, CSS</t>
-  </si>
-  <si>
     <t>https://cdpeters.github.io/biodiversity-dashboard-plotly/</t>
   </si>
   <si>
@@ -252,9 +222,6 @@
     <t>https://github.com/cdpeters/portfolio-website/blob/main/tools.py</t>
   </si>
   <si>
-    <t>https://github.com/cdpeters/dash-test-app</t>
-  </si>
-  <si>
     <t>https://github.com/cdpeters/portfolio-website/tree/main/notes</t>
   </si>
   <si>
@@ -268,9 +235,6 @@
   </si>
   <si>
     <t>cli</t>
-  </si>
-  <si>
-    <t>pandas, dash, ibis-framework, sqlite, tailwindcss</t>
   </si>
   <si>
     <t>setup, workflows</t>
@@ -331,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -341,15 +305,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
@@ -673,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2C412C-6E97-4788-869B-F51667F527C3}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -695,364 +650,314 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="9">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>77</v>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="9">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="9">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
+      <c r="I16" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="9">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="6">
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="6">
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{37F8C10D-71E9-417E-A08C-3FA05B84D7BC}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{CD681E0B-A6D3-4F29-93A0-129E2D09B503}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{2D920DAB-EFA3-435C-B571-C96879D2C73D}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{29F74962-CDA6-49CB-A258-CABF61815D35}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{D25A4B71-A3E3-4A92-87E8-FE73D52BC448}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{CD95D7A8-8D53-48F3-B461-A296578D24E7}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{60E8240C-259F-4BAB-A801-E5CD66600C1A}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{BBC62E4E-DC20-47C7-8E3E-E9F13E8CB1C9}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{E267236B-DF79-4652-AA09-481309B98BE1}"/>
-    <hyperlink ref="I18" r:id="rId11" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
-    <hyperlink ref="I17" r:id="rId12" xr:uid="{FB928050-0DA6-4298-AC87-1B73E4384C08}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{FF316A68-48F2-4723-94D4-BDFC6FC1C12F}"/>
-    <hyperlink ref="E19" r:id="rId14" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{1131C430-A06F-4FC5-A6FA-F09DFC8A795F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{CD681E0B-A6D3-4F29-93A0-129E2D09B503}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2D920DAB-EFA3-435C-B571-C96879D2C73D}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{29F74962-CDA6-49CB-A258-CABF61815D35}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{D25A4B71-A3E3-4A92-87E8-FE73D52BC448}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{CD95D7A8-8D53-48F3-B461-A296578D24E7}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{60E8240C-259F-4BAB-A801-E5CD66600C1A}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
+    <hyperlink ref="E13" r:id="rId8" xr:uid="{BBC62E4E-DC20-47C7-8E3E-E9F13E8CB1C9}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{FB928050-0DA6-4298-AC87-1B73E4384C08}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{FF316A68-48F2-4723-94D4-BDFC6FC1C12F}"/>
+    <hyperlink ref="E18" r:id="rId12" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
+    <hyperlink ref="I12" r:id="rId13" xr:uid="{1131C430-A06F-4FC5-A6FA-F09DFC8A795F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/page_metadata_staging.xlsx
+++ b/data/page_metadata_staging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\Portfolio Website\portfolio-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63B85E8-CC11-4E81-9A42-C46B33173941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C93CBA-ACDE-4B2F-97B7-6B377DF11C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0F48850E-ADBC-4F08-8282-8BC2E517D1A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>mlb_the_show</t>
   </si>
@@ -33,12 +33,6 @@
     <t>handbell_music</t>
   </si>
   <si>
-    <t>MechaCar Statistics</t>
-  </si>
-  <si>
-    <t>Bike Sharing</t>
-  </si>
-  <si>
     <t>Mapping Earthquakes</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>UFO Sightings</t>
   </si>
   <si>
-    <t>Employee Database</t>
-  </si>
-  <si>
     <t>Dev Tool CLI</t>
   </si>
   <si>
@@ -69,15 +60,6 @@
     <t>markdown</t>
   </si>
   <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
     <t>bootstrap</t>
   </si>
   <si>
@@ -90,18 +72,6 @@
     <t>Mapbox API</t>
   </si>
   <si>
-    <t>pandas, tableau</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>dplyr</t>
-  </si>
-  <si>
-    <t>linear regression, t-test, hypothesis testing, study design</t>
-  </si>
-  <si>
     <t>app</t>
   </si>
   <si>
@@ -114,12 +84,6 @@
     <t>web scraping</t>
   </si>
   <si>
-    <t>mechacar</t>
-  </si>
-  <si>
-    <t>bike_sharing</t>
-  </si>
-  <si>
     <t>map_earthquakes</t>
   </si>
   <si>
@@ -129,18 +93,6 @@
     <t>ufo_sightings</t>
   </si>
   <si>
-    <t>employee_db</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>tableau</t>
-  </si>
-  <si>
-    <t>sql</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -165,12 +117,6 @@
     <t>https://github.com/cdpeters/mlb-the-show-analysis</t>
   </si>
   <si>
-    <t>https://github.com/cdpeters/MechaCar-statistical-analysis-R</t>
-  </si>
-  <si>
-    <t>https://github.com/cdpeters/bike-sharing-tableau</t>
-  </si>
-  <si>
     <t>https://github.com/cdpeters/mapping-earthquakes-leaflet</t>
   </si>
   <si>
@@ -180,9 +126,6 @@
     <t>https://github.com/cdpeters/dynamic-UFO-website-javascript</t>
   </si>
   <si>
-    <t>https://github.com/cdpeters/employee-database-postgresql</t>
-  </si>
-  <si>
     <t>Handbell Music</t>
   </si>
   <si>
@@ -225,9 +168,6 @@
     <t>https://github.com/cdpeters/portfolio-website/tree/main/notes</t>
   </si>
   <si>
-    <t>https://public.tableau.com/views/NYC_CitiBike_Challenge_16506220556720/August2019NYCCitibikeStudy?:language=en-US&amp;:display_count=n&amp;:origin=viz_share_link</t>
-  </si>
-  <si>
     <t>click, subprocess</t>
   </si>
   <si>
@@ -238,6 +178,9 @@
   </si>
   <si>
     <t>setup, workflows</t>
+  </si>
+  <si>
+    <t>website_name</t>
   </si>
 </sst>
 </file>
@@ -628,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2C412C-6E97-4788-869B-F51667F527C3}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -645,39 +588,43 @@
     <col min="7" max="7" width="90" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -685,25 +632,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,253 +658,177 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>62</v>
+      <c r="J17" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="6">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CD681E0B-A6D3-4F29-93A0-129E2D09B503}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{2D920DAB-EFA3-435C-B571-C96879D2C73D}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{29F74962-CDA6-49CB-A258-CABF61815D35}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{D25A4B71-A3E3-4A92-87E8-FE73D52BC448}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{CD95D7A8-8D53-48F3-B461-A296578D24E7}"/>
-    <hyperlink ref="E16" r:id="rId6" xr:uid="{60E8240C-259F-4BAB-A801-E5CD66600C1A}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{BBC62E4E-DC20-47C7-8E3E-E9F13E8CB1C9}"/>
-    <hyperlink ref="I17" r:id="rId9" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
-    <hyperlink ref="I16" r:id="rId10" xr:uid="{FB928050-0DA6-4298-AC87-1B73E4384C08}"/>
-    <hyperlink ref="E14" r:id="rId11" xr:uid="{FF316A68-48F2-4723-94D4-BDFC6FC1C12F}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
-    <hyperlink ref="I12" r:id="rId13" xr:uid="{1131C430-A06F-4FC5-A6FA-F09DFC8A795F}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{CD95D7A8-8D53-48F3-B461-A296578D24E7}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{60E8240C-259F-4BAB-A801-E5CD66600C1A}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
+    <hyperlink ref="I17" r:id="rId6" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
+    <hyperlink ref="I16" r:id="rId7" xr:uid="{FB928050-0DA6-4298-AC87-1B73E4384C08}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{FF316A68-48F2-4723-94D4-BDFC6FC1C12F}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data/page_metadata_staging.xlsx
+++ b/data/page_metadata_staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\Portfolio Website\portfolio-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C93CBA-ACDE-4B2F-97B7-6B377DF11C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C77263-45B2-4065-B821-A1737E3A588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0F48850E-ADBC-4F08-8282-8BC2E517D1A7}"/>
+    <workbookView xWindow="-19200" yWindow="0" windowWidth="19200" windowHeight="15750" xr2:uid="{0F48850E-ADBC-4F08-8282-8BC2E517D1A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>mlb_the_show</t>
   </si>
@@ -33,21 +33,9 @@
     <t>handbell_music</t>
   </si>
   <si>
-    <t>Mapping Earthquakes</t>
-  </si>
-  <si>
-    <t>Biodiversity Dashboard</t>
-  </si>
-  <si>
     <t>UFO Sightings</t>
   </si>
   <si>
-    <t>Dev Tool CLI</t>
-  </si>
-  <si>
-    <t>dev_tool_cli</t>
-  </si>
-  <si>
     <t>Setup/Workflow Guides</t>
   </si>
   <si>
@@ -63,15 +51,6 @@
     <t>bootstrap</t>
   </si>
   <si>
-    <t>bootstrap, d3, plotly</t>
-  </si>
-  <si>
-    <t>leaflet, d3, mapbox</t>
-  </si>
-  <si>
-    <t>Mapbox API</t>
-  </si>
-  <si>
     <t>app</t>
   </si>
   <si>
@@ -84,12 +63,6 @@
     <t>web scraping</t>
   </si>
   <si>
-    <t>map_earthquakes</t>
-  </si>
-  <si>
-    <t>biodiversity</t>
-  </si>
-  <si>
     <t>ufo_sightings</t>
   </si>
   <si>
@@ -117,12 +90,6 @@
     <t>https://github.com/cdpeters/mlb-the-show-analysis</t>
   </si>
   <si>
-    <t>https://github.com/cdpeters/mapping-earthquakes-leaflet</t>
-  </si>
-  <si>
-    <t>https://github.com/cdpeters/biodiversity-dashboard-plotly</t>
-  </si>
-  <si>
     <t>https://github.com/cdpeters/dynamic-UFO-website-javascript</t>
   </si>
   <si>
@@ -153,34 +120,19 @@
     <t>Markdown</t>
   </si>
   <si>
-    <t>https://cdpeters.github.io/biodiversity-dashboard-plotly/</t>
-  </si>
-  <si>
     <t>https://cdpeters.github.io/dynamic-UFO-website-javascript/</t>
   </si>
   <si>
     <t>libraries_tools</t>
   </si>
   <si>
-    <t>https://github.com/cdpeters/portfolio-website/blob/main/tools.py</t>
-  </si>
-  <si>
     <t>https://github.com/cdpeters/portfolio-website/tree/main/notes</t>
   </si>
   <si>
-    <t>click, subprocess</t>
-  </si>
-  <si>
-    <t>CLI</t>
-  </si>
-  <si>
-    <t>cli</t>
-  </si>
-  <si>
-    <t>setup, workflows</t>
-  </si>
-  <si>
     <t>website_name</t>
+  </si>
+  <si>
+    <t>documentation, project setup, workflows</t>
   </si>
 </sst>
 </file>
@@ -574,7 +526,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -594,34 +546,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -632,22 +584,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -658,22 +610,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -681,154 +633,82 @@
       <c r="E10" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="E16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B17" s="6">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B18" s="6">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CD681E0B-A6D3-4F29-93A0-129E2D09B503}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{2D920DAB-EFA3-435C-B571-C96879D2C73D}"/>
-    <hyperlink ref="E15" r:id="rId3" xr:uid="{CD95D7A8-8D53-48F3-B461-A296578D24E7}"/>
-    <hyperlink ref="E16" r:id="rId4" xr:uid="{60E8240C-259F-4BAB-A801-E5CD66600C1A}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
-    <hyperlink ref="I17" r:id="rId6" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
-    <hyperlink ref="I16" r:id="rId7" xr:uid="{FB928050-0DA6-4298-AC87-1B73E4384C08}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{FF316A68-48F2-4723-94D4-BDFC6FC1C12F}"/>
-    <hyperlink ref="E18" r:id="rId9" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{9FA6B93E-A3A6-48EC-9C37-50B72ACF667C}"/>
+    <hyperlink ref="I17" r:id="rId4" xr:uid="{E6B871A8-109A-4EE5-9BD7-70659F069CB1}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{AB90E9EA-AEFF-4EF8-A322-CAF589A0B570}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>